--- a/3_data_analysis/5_clustring/1_all_samples/cluster_4/cluster4.xlsx
+++ b/3_data_analysis/5_clustring/1_all_samples/cluster_4/cluster4.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
   <si>
     <t xml:space="preserve">variable_id</t>
   </si>
@@ -23,31 +23,25 @@
     <t xml:space="preserve">cluster</t>
   </si>
   <si>
-    <t xml:space="preserve">protein_54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_240</t>
+    <t xml:space="preserve">protein_72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_165</t>
   </si>
   <si>
     <t xml:space="preserve">protein_254</t>
   </si>
   <si>
-    <t xml:space="preserve">protein_263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_291</t>
+    <t xml:space="preserve">protein_258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_292</t>
   </si>
   <si>
     <t xml:space="preserve">protein_300</t>
@@ -56,34 +50,28 @@
     <t xml:space="preserve">protein_329</t>
   </si>
   <si>
-    <t xml:space="preserve">protein_330</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_570</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_633</t>
+    <t xml:space="preserve">protein_369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_460</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_634</t>
   </si>
   <si>
     <t xml:space="preserve">protein_645</t>
@@ -92,517 +80,715 @@
     <t xml:space="preserve">protein_685</t>
   </si>
   <si>
-    <t xml:space="preserve">protein_789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1074</t>
+    <t xml:space="preserve">protein_713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1109</t>
   </si>
   <si>
     <t xml:space="preserve">protein_1119</t>
   </si>
   <si>
-    <t xml:space="preserve">protein_1150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1380</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1400</t>
+    <t xml:space="preserve">protein_1133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1494</t>
   </si>
   <si>
     <t xml:space="preserve">protein_1499</t>
   </si>
   <si>
-    <t xml:space="preserve">protein_1503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1860</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_1895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2401</t>
+    <t xml:space="preserve">protein_1534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_1979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2411</t>
   </si>
   <si>
     <t xml:space="preserve">protein_2444</t>
   </si>
   <si>
-    <t xml:space="preserve">protein_2519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2680</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2830</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_2977</t>
+    <t xml:space="preserve">protein_2544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2850</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_2982</t>
   </si>
   <si>
     <t xml:space="preserve">protein_3024</t>
   </si>
   <si>
-    <t xml:space="preserve">protein_3034</t>
+    <t xml:space="preserve">protein_3066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3072</t>
   </si>
   <si>
     <t xml:space="preserve">protein_3097</t>
   </si>
   <si>
-    <t xml:space="preserve">protein_3152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3266</t>
+    <t xml:space="preserve">protein_3112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3393</t>
   </si>
   <si>
     <t xml:space="preserve">protein_3414</t>
   </si>
   <si>
-    <t xml:space="preserve">protein_3427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_3944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4470</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4548</t>
+    <t xml:space="preserve">protein_3455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_3967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4390</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4603</t>
   </si>
   <si>
     <t xml:space="preserve">protein_4613</t>
   </si>
   <si>
-    <t xml:space="preserve">protein_4625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_4928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5038</t>
+    <t xml:space="preserve">protein_4624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_4999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5002</t>
   </si>
   <si>
     <t xml:space="preserve">protein_5041</t>
   </si>
   <si>
-    <t xml:space="preserve">protein_5230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5497</t>
+    <t xml:space="preserve">protein_5076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5449</t>
   </si>
   <si>
     <t xml:space="preserve">protein_5510</t>
   </si>
   <si>
-    <t xml:space="preserve">protein_5543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5890</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5920</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_5999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6568</t>
+    <t xml:space="preserve">protein_5564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_5971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6566</t>
   </si>
   <si>
     <t xml:space="preserve">protein_6581</t>
   </si>
   <si>
-    <t xml:space="preserve">protein_6605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6644</t>
+    <t xml:space="preserve">protein_6594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6692</t>
   </si>
   <si>
     <t xml:space="preserve">protein_6696</t>
   </si>
   <si>
-    <t xml:space="preserve">protein_6752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_6853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7205</t>
+    <t xml:space="preserve">protein_6698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6860</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_6973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7255</t>
   </si>
   <si>
     <t xml:space="preserve">protein_7259</t>
   </si>
   <si>
-    <t xml:space="preserve">protein_7266</t>
+    <t xml:space="preserve">protein_7273</t>
   </si>
   <si>
     <t xml:space="preserve">protein_7282</t>
   </si>
   <si>
-    <t xml:space="preserve">protein_7291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7592</t>
+    <t xml:space="preserve">protein_7307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7583</t>
   </si>
   <si>
     <t xml:space="preserve">protein_7688</t>
   </si>
   <si>
-    <t xml:space="preserve">protein_7725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_7974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8163</t>
+    <t xml:space="preserve">protein_7758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_7996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_8054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_8097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_8098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_8122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_8135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_8151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_8157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_8170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_8175</t>
   </si>
   <si>
     <t xml:space="preserve">protein_8244</t>
   </si>
   <si>
-    <t xml:space="preserve">protein_8303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_8464</t>
+    <t xml:space="preserve">protein_8251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_8297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_8378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_8387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_8415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_8456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein_8459</t>
   </si>
 </sst>
 </file>
@@ -650,8 +836,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:C195" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:C195"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:C257" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:C257"/>
   <tableColumns count="3">
     <tableColumn id="1" name="variable_id"/>
     <tableColumn id="2" name="membership"/>
@@ -962,7 +1148,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.985370303871179</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
@@ -973,7 +1159,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.993524679714896</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
@@ -984,7 +1170,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>0.999999748790426</v>
+        <v>0.954459425225184</v>
       </c>
       <c r="C4" t="n">
         <v>4</v>
@@ -995,7 +1181,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.948559998018899</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1006,7 +1192,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>0.999999999842168</v>
+        <v>0.832913952389672</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
@@ -1017,7 +1203,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>0.97064662112664</v>
+        <v>0.927676473896718</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
@@ -1028,7 +1214,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0.881834522939435</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
@@ -1039,7 +1225,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>0.802872093888064</v>
+        <v>0.993066019766664</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
@@ -1050,7 +1236,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>0.999999999948201</v>
+        <v>0.992069005259254</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1061,7 +1247,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>0.999999928778048</v>
+        <v>0.99989875357885</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
@@ -1072,7 +1258,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>0.609111197338522</v>
+        <v>0.930875798407773</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
@@ -1083,7 +1269,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>0.995589064367187</v>
+        <v>0.998744486732854</v>
       </c>
       <c r="C13" t="n">
         <v>4</v>
@@ -1094,7 +1280,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>0.999999999933467</v>
+        <v>0.98950941749122</v>
       </c>
       <c r="C14" t="n">
         <v>4</v>
@@ -1105,7 +1291,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>0.96843453323449</v>
+        <v>0.997959781602178</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
@@ -1116,7 +1302,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="n">
-        <v>0.998938264975546</v>
+        <v>0.873857371977976</v>
       </c>
       <c r="C16" t="n">
         <v>4</v>
@@ -1127,7 +1313,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>0.999999352202198</v>
+        <v>0.892678432186183</v>
       </c>
       <c r="C17" t="n">
         <v>4</v>
@@ -1138,7 +1324,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>0.985449916443081</v>
+        <v>0.998120813298591</v>
       </c>
       <c r="C18" t="n">
         <v>4</v>
@@ -1149,7 +1335,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>0.999999991762281</v>
+        <v>0.917774771700583</v>
       </c>
       <c r="C19" t="n">
         <v>4</v>
@@ -1160,7 +1346,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="n">
-        <v>0.546411634694757</v>
+        <v>0.86927890669486</v>
       </c>
       <c r="C20" t="n">
         <v>4</v>
@@ -1171,7 +1357,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="n">
-        <v>0.947254814276344</v>
+        <v>0.991362710503092</v>
       </c>
       <c r="C21" t="n">
         <v>4</v>
@@ -1182,7 +1368,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0.996617577816492</v>
       </c>
       <c r="C22" t="n">
         <v>4</v>
@@ -1193,7 +1379,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="n">
-        <v>0.999999999932685</v>
+        <v>0.93386788032831</v>
       </c>
       <c r="C23" t="n">
         <v>4</v>
@@ -1204,7 +1390,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="n">
-        <v>0.999998010169191</v>
+        <v>0.921174914247585</v>
       </c>
       <c r="C24" t="n">
         <v>4</v>
@@ -1215,7 +1401,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="n">
-        <v>0.890302652048818</v>
+        <v>0.994426071093818</v>
       </c>
       <c r="C25" t="n">
         <v>4</v>
@@ -1226,7 +1412,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="n">
-        <v>0.99999996464517</v>
+        <v>0.9280662343385</v>
       </c>
       <c r="C26" t="n">
         <v>4</v>
@@ -1237,7 +1423,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="n">
-        <v>0.993495655649271</v>
+        <v>0.821123157122706</v>
       </c>
       <c r="C27" t="n">
         <v>4</v>
@@ -1248,7 +1434,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0.973668197790787</v>
       </c>
       <c r="C28" t="n">
         <v>4</v>
@@ -1259,7 +1445,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0.963200150209634</v>
       </c>
       <c r="C29" t="n">
         <v>4</v>
@@ -1270,7 +1456,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="n">
-        <v>0.999999993045162</v>
+        <v>0.96628951474265</v>
       </c>
       <c r="C30" t="n">
         <v>4</v>
@@ -1281,7 +1467,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0.996622608600557</v>
       </c>
       <c r="C31" t="n">
         <v>4</v>
@@ -1292,7 +1478,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0.99965048610997</v>
       </c>
       <c r="C32" t="n">
         <v>4</v>
@@ -1303,7 +1489,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="n">
-        <v>0.999997194030807</v>
+        <v>0.996809149930501</v>
       </c>
       <c r="C33" t="n">
         <v>4</v>
@@ -1314,7 +1500,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="n">
-        <v>0.99999999456364</v>
+        <v>0.998566346740681</v>
       </c>
       <c r="C34" t="n">
         <v>4</v>
@@ -1325,7 +1511,7 @@
         <v>36</v>
       </c>
       <c r="B35" t="n">
-        <v>0.999062550744918</v>
+        <v>0.997825982982147</v>
       </c>
       <c r="C35" t="n">
         <v>4</v>
@@ -1336,7 +1522,7 @@
         <v>37</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0.98575860009304</v>
       </c>
       <c r="C36" t="n">
         <v>4</v>
@@ -1347,7 +1533,7 @@
         <v>38</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9971976070262</v>
+        <v>0.861202974137891</v>
       </c>
       <c r="C37" t="n">
         <v>4</v>
@@ -1358,7 +1544,7 @@
         <v>39</v>
       </c>
       <c r="B38" t="n">
-        <v>0.713005785533025</v>
+        <v>0.993613504768902</v>
       </c>
       <c r="C38" t="n">
         <v>4</v>
@@ -1369,7 +1555,7 @@
         <v>40</v>
       </c>
       <c r="B39" t="n">
-        <v>0.989946973698762</v>
+        <v>0.964575974265633</v>
       </c>
       <c r="C39" t="n">
         <v>4</v>
@@ -1380,7 +1566,7 @@
         <v>41</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0.928873115018372</v>
       </c>
       <c r="C40" t="n">
         <v>4</v>
@@ -1391,7 +1577,7 @@
         <v>42</v>
       </c>
       <c r="B41" t="n">
-        <v>0.989838316744426</v>
+        <v>0.87943570234808</v>
       </c>
       <c r="C41" t="n">
         <v>4</v>
@@ -1402,7 +1588,7 @@
         <v>43</v>
       </c>
       <c r="B42" t="n">
-        <v>0.999999495579827</v>
+        <v>0.999782693744249</v>
       </c>
       <c r="C42" t="n">
         <v>4</v>
@@ -1413,7 +1599,7 @@
         <v>44</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0.995912794893858</v>
       </c>
       <c r="C43" t="n">
         <v>4</v>
@@ -1424,7 +1610,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0.989690355970661</v>
       </c>
       <c r="C44" t="n">
         <v>4</v>
@@ -1435,7 +1621,7 @@
         <v>46</v>
       </c>
       <c r="B45" t="n">
-        <v>0.617625919287961</v>
+        <v>0.904655863173172</v>
       </c>
       <c r="C45" t="n">
         <v>4</v>
@@ -1446,7 +1632,7 @@
         <v>47</v>
       </c>
       <c r="B46" t="n">
-        <v>0.999999976772848</v>
+        <v>0.951286552019804</v>
       </c>
       <c r="C46" t="n">
         <v>4</v>
@@ -1457,7 +1643,7 @@
         <v>48</v>
       </c>
       <c r="B47" t="n">
-        <v>0.999999999997088</v>
+        <v>0.9990031648482</v>
       </c>
       <c r="C47" t="n">
         <v>4</v>
@@ -1468,7 +1654,7 @@
         <v>49</v>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0.998872780291609</v>
       </c>
       <c r="C48" t="n">
         <v>4</v>
@@ -1479,7 +1665,7 @@
         <v>50</v>
       </c>
       <c r="B49" t="n">
-        <v>0.699740999348265</v>
+        <v>0.998667533689089</v>
       </c>
       <c r="C49" t="n">
         <v>4</v>
@@ -1490,7 +1676,7 @@
         <v>51</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0.99919803578355</v>
       </c>
       <c r="C50" t="n">
         <v>4</v>
@@ -1501,7 +1687,7 @@
         <v>52</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0.860536480228949</v>
       </c>
       <c r="C51" t="n">
         <v>4</v>
@@ -1512,7 +1698,7 @@
         <v>53</v>
       </c>
       <c r="B52" t="n">
-        <v>0.999999999999953</v>
+        <v>0.876433730916906</v>
       </c>
       <c r="C52" t="n">
         <v>4</v>
@@ -1523,7 +1709,7 @@
         <v>54</v>
       </c>
       <c r="B53" t="n">
-        <v>0.793492548289722</v>
+        <v>0.95900363573284</v>
       </c>
       <c r="C53" t="n">
         <v>4</v>
@@ -1534,7 +1720,7 @@
         <v>55</v>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0.879539639229002</v>
       </c>
       <c r="C54" t="n">
         <v>4</v>
@@ -1545,7 +1731,7 @@
         <v>56</v>
       </c>
       <c r="B55" t="n">
-        <v>0.999999999133095</v>
+        <v>0.955287151208326</v>
       </c>
       <c r="C55" t="n">
         <v>4</v>
@@ -1556,7 +1742,7 @@
         <v>57</v>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0.995035095852494</v>
       </c>
       <c r="C56" t="n">
         <v>4</v>
@@ -1567,7 +1753,7 @@
         <v>58</v>
       </c>
       <c r="B57" t="n">
-        <v>0.999999989665719</v>
+        <v>0.999890175542681</v>
       </c>
       <c r="C57" t="n">
         <v>4</v>
@@ -1578,7 +1764,7 @@
         <v>59</v>
       </c>
       <c r="B58" t="n">
-        <v>0.998101789366323</v>
+        <v>0.999714498186746</v>
       </c>
       <c r="C58" t="n">
         <v>4</v>
@@ -1589,7 +1775,7 @@
         <v>60</v>
       </c>
       <c r="B59" t="n">
-        <v>0.99983126702673</v>
+        <v>0.991985567933024</v>
       </c>
       <c r="C59" t="n">
         <v>4</v>
@@ -1600,7 +1786,7 @@
         <v>61</v>
       </c>
       <c r="B60" t="n">
-        <v>0.999996936295624</v>
+        <v>0.926071634784566</v>
       </c>
       <c r="C60" t="n">
         <v>4</v>
@@ -1611,7 +1797,7 @@
         <v>62</v>
       </c>
       <c r="B61" t="n">
-        <v>0.999999996493179</v>
+        <v>0.973546601079973</v>
       </c>
       <c r="C61" t="n">
         <v>4</v>
@@ -1622,7 +1808,7 @@
         <v>63</v>
       </c>
       <c r="B62" t="n">
-        <v>0.999999999877025</v>
+        <v>0.996648846377551</v>
       </c>
       <c r="C62" t="n">
         <v>4</v>
@@ -1633,7 +1819,7 @@
         <v>64</v>
       </c>
       <c r="B63" t="n">
-        <v>0.658576030446529</v>
+        <v>0.818570945717742</v>
       </c>
       <c r="C63" t="n">
         <v>4</v>
@@ -1644,7 +1830,7 @@
         <v>65</v>
       </c>
       <c r="B64" t="n">
-        <v>0.838055715492569</v>
+        <v>0.999883169280877</v>
       </c>
       <c r="C64" t="n">
         <v>4</v>
@@ -1655,7 +1841,7 @@
         <v>66</v>
       </c>
       <c r="B65" t="n">
-        <v>0.999825985102429</v>
+        <v>0.990772971023656</v>
       </c>
       <c r="C65" t="n">
         <v>4</v>
@@ -1666,7 +1852,7 @@
         <v>67</v>
       </c>
       <c r="B66" t="n">
-        <v>0.999990975359923</v>
+        <v>0.824325535277948</v>
       </c>
       <c r="C66" t="n">
         <v>4</v>
@@ -1677,7 +1863,7 @@
         <v>68</v>
       </c>
       <c r="B67" t="n">
-        <v>0.972150011192152</v>
+        <v>0.963723279331703</v>
       </c>
       <c r="C67" t="n">
         <v>4</v>
@@ -1688,7 +1874,7 @@
         <v>69</v>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0.975673496058615</v>
       </c>
       <c r="C68" t="n">
         <v>4</v>
@@ -1699,7 +1885,7 @@
         <v>70</v>
       </c>
       <c r="B69" t="n">
-        <v>0.99999999954209</v>
+        <v>0.99494716534996</v>
       </c>
       <c r="C69" t="n">
         <v>4</v>
@@ -1710,7 +1896,7 @@
         <v>71</v>
       </c>
       <c r="B70" t="n">
-        <v>0.997815436305291</v>
+        <v>0.999308617243366</v>
       </c>
       <c r="C70" t="n">
         <v>4</v>
@@ -1721,7 +1907,7 @@
         <v>72</v>
       </c>
       <c r="B71" t="n">
-        <v>0.988818540804351</v>
+        <v>0.851324888062663</v>
       </c>
       <c r="C71" t="n">
         <v>4</v>
@@ -1732,7 +1918,7 @@
         <v>73</v>
       </c>
       <c r="B72" t="n">
-        <v>0.992157630970543</v>
+        <v>0.999945377384536</v>
       </c>
       <c r="C72" t="n">
         <v>4</v>
@@ -1743,7 +1929,7 @@
         <v>74</v>
       </c>
       <c r="B73" t="n">
-        <v>0.999999820249187</v>
+        <v>0.957174492723214</v>
       </c>
       <c r="C73" t="n">
         <v>4</v>
@@ -1754,7 +1940,7 @@
         <v>75</v>
       </c>
       <c r="B74" t="n">
-        <v>0.841394390153108</v>
+        <v>0.951902237999558</v>
       </c>
       <c r="C74" t="n">
         <v>4</v>
@@ -1765,7 +1951,7 @@
         <v>76</v>
       </c>
       <c r="B75" t="n">
-        <v>0.938551191931238</v>
+        <v>0.865657627843902</v>
       </c>
       <c r="C75" t="n">
         <v>4</v>
@@ -1776,7 +1962,7 @@
         <v>77</v>
       </c>
       <c r="B76" t="n">
-        <v>0.980178510165168</v>
+        <v>0.960925950114885</v>
       </c>
       <c r="C76" t="n">
         <v>4</v>
@@ -1787,7 +1973,7 @@
         <v>78</v>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>0.977799929561627</v>
       </c>
       <c r="C77" t="n">
         <v>4</v>
@@ -1798,7 +1984,7 @@
         <v>79</v>
       </c>
       <c r="B78" t="n">
-        <v>0.999995111854643</v>
+        <v>0.989929754153133</v>
       </c>
       <c r="C78" t="n">
         <v>4</v>
@@ -1809,7 +1995,7 @@
         <v>80</v>
       </c>
       <c r="B79" t="n">
-        <v>0.999531348795398</v>
+        <v>0.938292154724804</v>
       </c>
       <c r="C79" t="n">
         <v>4</v>
@@ -1820,7 +2006,7 @@
         <v>81</v>
       </c>
       <c r="B80" t="n">
-        <v>0.724212697092564</v>
+        <v>0.821254847760185</v>
       </c>
       <c r="C80" t="n">
         <v>4</v>
@@ -1831,7 +2017,7 @@
         <v>82</v>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>0.975886256550716</v>
       </c>
       <c r="C81" t="n">
         <v>4</v>
@@ -1842,7 +2028,7 @@
         <v>83</v>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>0.997229310838925</v>
       </c>
       <c r="C82" t="n">
         <v>4</v>
@@ -1853,7 +2039,7 @@
         <v>84</v>
       </c>
       <c r="B83" t="n">
-        <v>0.974393185246217</v>
+        <v>0.995625901419303</v>
       </c>
       <c r="C83" t="n">
         <v>4</v>
@@ -1864,7 +2050,7 @@
         <v>85</v>
       </c>
       <c r="B84" t="n">
-        <v>0.999999999999997</v>
+        <v>0.980514432130974</v>
       </c>
       <c r="C84" t="n">
         <v>4</v>
@@ -1875,7 +2061,7 @@
         <v>86</v>
       </c>
       <c r="B85" t="n">
-        <v>0.99999999999809</v>
+        <v>0.839244529886633</v>
       </c>
       <c r="C85" t="n">
         <v>4</v>
@@ -1886,7 +2072,7 @@
         <v>87</v>
       </c>
       <c r="B86" t="n">
-        <v>0.703277560791774</v>
+        <v>0.983798429109437</v>
       </c>
       <c r="C86" t="n">
         <v>4</v>
@@ -1897,7 +2083,7 @@
         <v>88</v>
       </c>
       <c r="B87" t="n">
-        <v>0.999367037976881</v>
+        <v>0.822283432870348</v>
       </c>
       <c r="C87" t="n">
         <v>4</v>
@@ -1908,7 +2094,7 @@
         <v>89</v>
       </c>
       <c r="B88" t="n">
-        <v>0.999998928491051</v>
+        <v>0.999060505072786</v>
       </c>
       <c r="C88" t="n">
         <v>4</v>
@@ -1919,7 +2105,7 @@
         <v>90</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0.975826455904933</v>
       </c>
       <c r="C89" t="n">
         <v>4</v>
@@ -1930,7 +2116,7 @@
         <v>91</v>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0.945302232404867</v>
       </c>
       <c r="C90" t="n">
         <v>4</v>
@@ -1941,7 +2127,7 @@
         <v>92</v>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0.987354021352321</v>
       </c>
       <c r="C91" t="n">
         <v>4</v>
@@ -1952,7 +2138,7 @@
         <v>93</v>
       </c>
       <c r="B92" t="n">
-        <v>0.999999999999995</v>
+        <v>0.974550183500724</v>
       </c>
       <c r="C92" t="n">
         <v>4</v>
@@ -1963,7 +2149,7 @@
         <v>94</v>
       </c>
       <c r="B93" t="n">
-        <v>0.997452345595326</v>
+        <v>0.999749953120521</v>
       </c>
       <c r="C93" t="n">
         <v>4</v>
@@ -1974,7 +2160,7 @@
         <v>95</v>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0.951710327162423</v>
       </c>
       <c r="C94" t="n">
         <v>4</v>
@@ -1985,7 +2171,7 @@
         <v>96</v>
       </c>
       <c r="B95" t="n">
-        <v>0.999999999988091</v>
+        <v>0.926144269318148</v>
       </c>
       <c r="C95" t="n">
         <v>4</v>
@@ -1996,7 +2182,7 @@
         <v>97</v>
       </c>
       <c r="B96" t="n">
-        <v>0.987204438098203</v>
+        <v>0.999599732523489</v>
       </c>
       <c r="C96" t="n">
         <v>4</v>
@@ -2007,7 +2193,7 @@
         <v>98</v>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0.94242936566112</v>
       </c>
       <c r="C97" t="n">
         <v>4</v>
@@ -2018,7 +2204,7 @@
         <v>99</v>
       </c>
       <c r="B98" t="n">
-        <v>0.999991487875032</v>
+        <v>0.962904481218707</v>
       </c>
       <c r="C98" t="n">
         <v>4</v>
@@ -2029,7 +2215,7 @@
         <v>100</v>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0.984965228177793</v>
       </c>
       <c r="C99" t="n">
         <v>4</v>
@@ -2040,7 +2226,7 @@
         <v>101</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0.991556689527963</v>
       </c>
       <c r="C100" t="n">
         <v>4</v>
@@ -2051,7 +2237,7 @@
         <v>102</v>
       </c>
       <c r="B101" t="n">
-        <v>0.999975589075924</v>
+        <v>0.971196973454361</v>
       </c>
       <c r="C101" t="n">
         <v>4</v>
@@ -2062,7 +2248,7 @@
         <v>103</v>
       </c>
       <c r="B102" t="n">
-        <v>0.711600279254332</v>
+        <v>0.999289192821767</v>
       </c>
       <c r="C102" t="n">
         <v>4</v>
@@ -2073,7 +2259,7 @@
         <v>104</v>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0.999776306468265</v>
       </c>
       <c r="C103" t="n">
         <v>4</v>
@@ -2084,7 +2270,7 @@
         <v>105</v>
       </c>
       <c r="B104" t="n">
-        <v>0.999990180180964</v>
+        <v>0.987539874901092</v>
       </c>
       <c r="C104" t="n">
         <v>4</v>
@@ -2095,7 +2281,7 @@
         <v>106</v>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0.899296556740794</v>
       </c>
       <c r="C105" t="n">
         <v>4</v>
@@ -2106,7 +2292,7 @@
         <v>107</v>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>0.829401283142689</v>
       </c>
       <c r="C106" t="n">
         <v>4</v>
@@ -2117,7 +2303,7 @@
         <v>108</v>
       </c>
       <c r="B107" t="n">
-        <v>0.999999999976538</v>
+        <v>0.997696511885489</v>
       </c>
       <c r="C107" t="n">
         <v>4</v>
@@ -2128,7 +2314,7 @@
         <v>109</v>
       </c>
       <c r="B108" t="n">
-        <v>0.999999999952691</v>
+        <v>0.973145074822546</v>
       </c>
       <c r="C108" t="n">
         <v>4</v>
@@ -2139,7 +2325,7 @@
         <v>110</v>
       </c>
       <c r="B109" t="n">
-        <v>0.999527660109153</v>
+        <v>0.998253314357706</v>
       </c>
       <c r="C109" t="n">
         <v>4</v>
@@ -2150,7 +2336,7 @@
         <v>111</v>
       </c>
       <c r="B110" t="n">
-        <v>0.999097619309104</v>
+        <v>0.997565308841644</v>
       </c>
       <c r="C110" t="n">
         <v>4</v>
@@ -2161,7 +2347,7 @@
         <v>112</v>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>0.999372120557625</v>
       </c>
       <c r="C111" t="n">
         <v>4</v>
@@ -2172,7 +2358,7 @@
         <v>113</v>
       </c>
       <c r="B112" t="n">
-        <v>0.997800081961586</v>
+        <v>0.901536296546877</v>
       </c>
       <c r="C112" t="n">
         <v>4</v>
@@ -2183,7 +2369,7 @@
         <v>114</v>
       </c>
       <c r="B113" t="n">
-        <v>0.691124353358437</v>
+        <v>0.969438467821611</v>
       </c>
       <c r="C113" t="n">
         <v>4</v>
@@ -2194,7 +2380,7 @@
         <v>115</v>
       </c>
       <c r="B114" t="n">
-        <v>0.727190929178237</v>
+        <v>0.904226051589007</v>
       </c>
       <c r="C114" t="n">
         <v>4</v>
@@ -2205,7 +2391,7 @@
         <v>116</v>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>0.983048526482301</v>
       </c>
       <c r="C115" t="n">
         <v>4</v>
@@ -2216,7 +2402,7 @@
         <v>117</v>
       </c>
       <c r="B116" t="n">
-        <v>0.975063350022773</v>
+        <v>0.897957094825599</v>
       </c>
       <c r="C116" t="n">
         <v>4</v>
@@ -2227,7 +2413,7 @@
         <v>118</v>
       </c>
       <c r="B117" t="n">
-        <v>0.954969462666453</v>
+        <v>0.95438858306858</v>
       </c>
       <c r="C117" t="n">
         <v>4</v>
@@ -2238,7 +2424,7 @@
         <v>119</v>
       </c>
       <c r="B118" t="n">
-        <v>0.986685543802108</v>
+        <v>0.985132644123329</v>
       </c>
       <c r="C118" t="n">
         <v>4</v>
@@ -2249,7 +2435,7 @@
         <v>120</v>
       </c>
       <c r="B119" t="n">
-        <v>0.998039015100255</v>
+        <v>0.998419792476381</v>
       </c>
       <c r="C119" t="n">
         <v>4</v>
@@ -2260,7 +2446,7 @@
         <v>121</v>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>0.887626987330287</v>
       </c>
       <c r="C120" t="n">
         <v>4</v>
@@ -2271,7 +2457,7 @@
         <v>122</v>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0.989600484022983</v>
       </c>
       <c r="C121" t="n">
         <v>4</v>
@@ -2282,7 +2468,7 @@
         <v>123</v>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>0.988111785741195</v>
       </c>
       <c r="C122" t="n">
         <v>4</v>
@@ -2293,7 +2479,7 @@
         <v>124</v>
       </c>
       <c r="B123" t="n">
-        <v>0.524055378745181</v>
+        <v>0.811442154042201</v>
       </c>
       <c r="C123" t="n">
         <v>4</v>
@@ -2304,7 +2490,7 @@
         <v>125</v>
       </c>
       <c r="B124" t="n">
-        <v>0.893797631765722</v>
+        <v>0.997133662631461</v>
       </c>
       <c r="C124" t="n">
         <v>4</v>
@@ -2315,7 +2501,7 @@
         <v>126</v>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>0.915321637473245</v>
       </c>
       <c r="C125" t="n">
         <v>4</v>
@@ -2326,7 +2512,7 @@
         <v>127</v>
       </c>
       <c r="B126" t="n">
-        <v>0.999987457241459</v>
+        <v>0.988651894152816</v>
       </c>
       <c r="C126" t="n">
         <v>4</v>
@@ -2337,7 +2523,7 @@
         <v>128</v>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>0.922271812902437</v>
       </c>
       <c r="C127" t="n">
         <v>4</v>
@@ -2348,7 +2534,7 @@
         <v>129</v>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0.928807667801488</v>
       </c>
       <c r="C128" t="n">
         <v>4</v>
@@ -2359,7 +2545,7 @@
         <v>130</v>
       </c>
       <c r="B129" t="n">
-        <v>0.999999999999962</v>
+        <v>0.970775631452752</v>
       </c>
       <c r="C129" t="n">
         <v>4</v>
@@ -2370,7 +2556,7 @@
         <v>131</v>
       </c>
       <c r="B130" t="n">
-        <v>0.910574669961872</v>
+        <v>0.907385849010312</v>
       </c>
       <c r="C130" t="n">
         <v>4</v>
@@ -2381,7 +2567,7 @@
         <v>132</v>
       </c>
       <c r="B131" t="n">
-        <v>0.992291981993674</v>
+        <v>0.991479008972884</v>
       </c>
       <c r="C131" t="n">
         <v>4</v>
@@ -2392,7 +2578,7 @@
         <v>133</v>
       </c>
       <c r="B132" t="n">
-        <v>0.669297439716024</v>
+        <v>0.987582380674368</v>
       </c>
       <c r="C132" t="n">
         <v>4</v>
@@ -2403,7 +2589,7 @@
         <v>134</v>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>0.979347134176118</v>
       </c>
       <c r="C133" t="n">
         <v>4</v>
@@ -2414,7 +2600,7 @@
         <v>135</v>
       </c>
       <c r="B134" t="n">
-        <v>0.97182612682612</v>
+        <v>0.949672646049858</v>
       </c>
       <c r="C134" t="n">
         <v>4</v>
@@ -2425,7 +2611,7 @@
         <v>136</v>
       </c>
       <c r="B135" t="n">
-        <v>0.55373014167504</v>
+        <v>0.990502860871822</v>
       </c>
       <c r="C135" t="n">
         <v>4</v>
@@ -2436,7 +2622,7 @@
         <v>137</v>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>0.96179409452041</v>
       </c>
       <c r="C136" t="n">
         <v>4</v>
@@ -2447,7 +2633,7 @@
         <v>138</v>
       </c>
       <c r="B137" t="n">
-        <v>0.875996193298414</v>
+        <v>0.998272369090328</v>
       </c>
       <c r="C137" t="n">
         <v>4</v>
@@ -2458,7 +2644,7 @@
         <v>139</v>
       </c>
       <c r="B138" t="n">
-        <v>0.825332735256131</v>
+        <v>0.974640944832149</v>
       </c>
       <c r="C138" t="n">
         <v>4</v>
@@ -2469,7 +2655,7 @@
         <v>140</v>
       </c>
       <c r="B139" t="n">
-        <v>0.983972196645424</v>
+        <v>0.997450966119157</v>
       </c>
       <c r="C139" t="n">
         <v>4</v>
@@ -2480,7 +2666,7 @@
         <v>141</v>
       </c>
       <c r="B140" t="n">
-        <v>0.965934661398597</v>
+        <v>0.82540719593406</v>
       </c>
       <c r="C140" t="n">
         <v>4</v>
@@ -2491,7 +2677,7 @@
         <v>142</v>
       </c>
       <c r="B141" t="n">
-        <v>0.999787593005229</v>
+        <v>0.863381004189921</v>
       </c>
       <c r="C141" t="n">
         <v>4</v>
@@ -2502,7 +2688,7 @@
         <v>143</v>
       </c>
       <c r="B142" t="n">
-        <v>0.999994721680336</v>
+        <v>0.946708885504092</v>
       </c>
       <c r="C142" t="n">
         <v>4</v>
@@ -2513,7 +2699,7 @@
         <v>144</v>
       </c>
       <c r="B143" t="n">
-        <v>0.999994058346683</v>
+        <v>0.919637397748009</v>
       </c>
       <c r="C143" t="n">
         <v>4</v>
@@ -2524,7 +2710,7 @@
         <v>145</v>
       </c>
       <c r="B144" t="n">
-        <v>0.999999999950289</v>
+        <v>0.996259325261244</v>
       </c>
       <c r="C144" t="n">
         <v>4</v>
@@ -2535,7 +2721,7 @@
         <v>146</v>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>0.946870146263739</v>
       </c>
       <c r="C145" t="n">
         <v>4</v>
@@ -2546,7 +2732,7 @@
         <v>147</v>
       </c>
       <c r="B146" t="n">
-        <v>0.999784960469091</v>
+        <v>0.999611913141253</v>
       </c>
       <c r="C146" t="n">
         <v>4</v>
@@ -2557,7 +2743,7 @@
         <v>148</v>
       </c>
       <c r="B147" t="n">
-        <v>0.997386277563115</v>
+        <v>0.99864157857128</v>
       </c>
       <c r="C147" t="n">
         <v>4</v>
@@ -2568,7 +2754,7 @@
         <v>149</v>
       </c>
       <c r="B148" t="n">
-        <v>0.999999999006616</v>
+        <v>0.999540749069011</v>
       </c>
       <c r="C148" t="n">
         <v>4</v>
@@ -2579,7 +2765,7 @@
         <v>150</v>
       </c>
       <c r="B149" t="n">
-        <v>0.999999999976523</v>
+        <v>0.906067561293401</v>
       </c>
       <c r="C149" t="n">
         <v>4</v>
@@ -2590,7 +2776,7 @@
         <v>151</v>
       </c>
       <c r="B150" t="n">
-        <v>0.979971816501274</v>
+        <v>0.88039981647797</v>
       </c>
       <c r="C150" t="n">
         <v>4</v>
@@ -2601,7 +2787,7 @@
         <v>152</v>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0.998878398903412</v>
       </c>
       <c r="C151" t="n">
         <v>4</v>
@@ -2612,7 +2798,7 @@
         <v>153</v>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>0.877907058461846</v>
       </c>
       <c r="C152" t="n">
         <v>4</v>
@@ -2623,7 +2809,7 @@
         <v>154</v>
       </c>
       <c r="B153" t="n">
-        <v>0.577163111040551</v>
+        <v>0.994128296746214</v>
       </c>
       <c r="C153" t="n">
         <v>4</v>
@@ -2634,7 +2820,7 @@
         <v>155</v>
       </c>
       <c r="B154" t="n">
-        <v>0.80142650677815</v>
+        <v>0.990178011541313</v>
       </c>
       <c r="C154" t="n">
         <v>4</v>
@@ -2645,7 +2831,7 @@
         <v>156</v>
       </c>
       <c r="B155" t="n">
-        <v>0.999999999950995</v>
+        <v>0.972978280496374</v>
       </c>
       <c r="C155" t="n">
         <v>4</v>
@@ -2656,7 +2842,7 @@
         <v>157</v>
       </c>
       <c r="B156" t="n">
-        <v>0.992451999487276</v>
+        <v>0.987170187957844</v>
       </c>
       <c r="C156" t="n">
         <v>4</v>
@@ -2667,7 +2853,7 @@
         <v>158</v>
       </c>
       <c r="B157" t="n">
-        <v>0.999762488686671</v>
+        <v>0.933911034310474</v>
       </c>
       <c r="C157" t="n">
         <v>4</v>
@@ -2678,7 +2864,7 @@
         <v>159</v>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
+        <v>0.997777520227818</v>
       </c>
       <c r="C158" t="n">
         <v>4</v>
@@ -2689,7 +2875,7 @@
         <v>160</v>
       </c>
       <c r="B159" t="n">
-        <v>0.799587646659215</v>
+        <v>0.85169570371019</v>
       </c>
       <c r="C159" t="n">
         <v>4</v>
@@ -2700,7 +2886,7 @@
         <v>161</v>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>0.991567158722227</v>
       </c>
       <c r="C160" t="n">
         <v>4</v>
@@ -2711,7 +2897,7 @@
         <v>162</v>
       </c>
       <c r="B161" t="n">
-        <v>0.813216123672882</v>
+        <v>0.808348424915315</v>
       </c>
       <c r="C161" t="n">
         <v>4</v>
@@ -2722,7 +2908,7 @@
         <v>163</v>
       </c>
       <c r="B162" t="n">
-        <v>0.999572992434492</v>
+        <v>0.810464807974786</v>
       </c>
       <c r="C162" t="n">
         <v>4</v>
@@ -2733,7 +2919,7 @@
         <v>164</v>
       </c>
       <c r="B163" t="n">
-        <v>0.999108436689433</v>
+        <v>0.858879766178701</v>
       </c>
       <c r="C163" t="n">
         <v>4</v>
@@ -2744,7 +2930,7 @@
         <v>165</v>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>0.82572300792527</v>
       </c>
       <c r="C164" t="n">
         <v>4</v>
@@ -2755,7 +2941,7 @@
         <v>166</v>
       </c>
       <c r="B165" t="n">
-        <v>0.999190320092999</v>
+        <v>0.926705206710746</v>
       </c>
       <c r="C165" t="n">
         <v>4</v>
@@ -2766,7 +2952,7 @@
         <v>167</v>
       </c>
       <c r="B166" t="n">
-        <v>0.866050343894904</v>
+        <v>0.952797642417162</v>
       </c>
       <c r="C166" t="n">
         <v>4</v>
@@ -2777,7 +2963,7 @@
         <v>168</v>
       </c>
       <c r="B167" t="n">
-        <v>0.999550257564355</v>
+        <v>0.988949707346007</v>
       </c>
       <c r="C167" t="n">
         <v>4</v>
@@ -2788,7 +2974,7 @@
         <v>169</v>
       </c>
       <c r="B168" t="n">
-        <v>1</v>
+        <v>0.824076460995459</v>
       </c>
       <c r="C168" t="n">
         <v>4</v>
@@ -2799,7 +2985,7 @@
         <v>170</v>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
+        <v>0.999190816155076</v>
       </c>
       <c r="C169" t="n">
         <v>4</v>
@@ -2810,7 +2996,7 @@
         <v>171</v>
       </c>
       <c r="B170" t="n">
-        <v>0.999990378024063</v>
+        <v>0.99826299804623</v>
       </c>
       <c r="C170" t="n">
         <v>4</v>
@@ -2821,7 +3007,7 @@
         <v>172</v>
       </c>
       <c r="B171" t="n">
-        <v>0.984233360267334</v>
+        <v>0.997195421486112</v>
       </c>
       <c r="C171" t="n">
         <v>4</v>
@@ -2832,7 +3018,7 @@
         <v>173</v>
       </c>
       <c r="B172" t="n">
-        <v>0.999999978401615</v>
+        <v>0.999371878962556</v>
       </c>
       <c r="C172" t="n">
         <v>4</v>
@@ -2843,7 +3029,7 @@
         <v>174</v>
       </c>
       <c r="B173" t="n">
-        <v>0.999999999783676</v>
+        <v>0.998781398781896</v>
       </c>
       <c r="C173" t="n">
         <v>4</v>
@@ -2854,7 +3040,7 @@
         <v>175</v>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>0.962495061857387</v>
       </c>
       <c r="C174" t="n">
         <v>4</v>
@@ -2865,7 +3051,7 @@
         <v>176</v>
       </c>
       <c r="B175" t="n">
-        <v>1</v>
+        <v>0.817380841937203</v>
       </c>
       <c r="C175" t="n">
         <v>4</v>
@@ -2876,7 +3062,7 @@
         <v>177</v>
       </c>
       <c r="B176" t="n">
-        <v>0.99180569037612</v>
+        <v>0.831101281411638</v>
       </c>
       <c r="C176" t="n">
         <v>4</v>
@@ -2887,7 +3073,7 @@
         <v>178</v>
       </c>
       <c r="B177" t="n">
-        <v>0.999999999998748</v>
+        <v>0.936973411312797</v>
       </c>
       <c r="C177" t="n">
         <v>4</v>
@@ -2898,7 +3084,7 @@
         <v>179</v>
       </c>
       <c r="B178" t="n">
-        <v>0.895738619253278</v>
+        <v>0.976694438552247</v>
       </c>
       <c r="C178" t="n">
         <v>4</v>
@@ -2909,7 +3095,7 @@
         <v>180</v>
       </c>
       <c r="B179" t="n">
-        <v>0.999999999932877</v>
+        <v>0.969960011042475</v>
       </c>
       <c r="C179" t="n">
         <v>4</v>
@@ -2920,7 +3106,7 @@
         <v>181</v>
       </c>
       <c r="B180" t="n">
-        <v>0.999992909586607</v>
+        <v>0.994538478311197</v>
       </c>
       <c r="C180" t="n">
         <v>4</v>
@@ -2931,7 +3117,7 @@
         <v>182</v>
       </c>
       <c r="B181" t="n">
-        <v>0.986361705982344</v>
+        <v>0.967722100388583</v>
       </c>
       <c r="C181" t="n">
         <v>4</v>
@@ -2942,7 +3128,7 @@
         <v>183</v>
       </c>
       <c r="B182" t="n">
-        <v>0.999999997722411</v>
+        <v>0.861422419830021</v>
       </c>
       <c r="C182" t="n">
         <v>4</v>
@@ -2953,7 +3139,7 @@
         <v>184</v>
       </c>
       <c r="B183" t="n">
-        <v>1</v>
+        <v>0.97490727646161</v>
       </c>
       <c r="C183" t="n">
         <v>4</v>
@@ -2964,7 +3150,7 @@
         <v>185</v>
       </c>
       <c r="B184" t="n">
-        <v>0.996910596010247</v>
+        <v>0.97284334135814</v>
       </c>
       <c r="C184" t="n">
         <v>4</v>
@@ -2975,7 +3161,7 @@
         <v>186</v>
       </c>
       <c r="B185" t="n">
-        <v>0.999999999999995</v>
+        <v>0.847082754515498</v>
       </c>
       <c r="C185" t="n">
         <v>4</v>
@@ -2986,7 +3172,7 @@
         <v>187</v>
       </c>
       <c r="B186" t="n">
-        <v>0.996199740150918</v>
+        <v>0.999876890772733</v>
       </c>
       <c r="C186" t="n">
         <v>4</v>
@@ -2997,7 +3183,7 @@
         <v>188</v>
       </c>
       <c r="B187" t="n">
-        <v>0.999999555297645</v>
+        <v>0.999598815084037</v>
       </c>
       <c r="C187" t="n">
         <v>4</v>
@@ -3008,7 +3194,7 @@
         <v>189</v>
       </c>
       <c r="B188" t="n">
-        <v>0.999999120077102</v>
+        <v>0.999011079949339</v>
       </c>
       <c r="C188" t="n">
         <v>4</v>
@@ -3019,7 +3205,7 @@
         <v>190</v>
       </c>
       <c r="B189" t="n">
-        <v>0.999997277908083</v>
+        <v>0.873279106169338</v>
       </c>
       <c r="C189" t="n">
         <v>4</v>
@@ -3030,7 +3216,7 @@
         <v>191</v>
       </c>
       <c r="B190" t="n">
-        <v>0.999959158555738</v>
+        <v>0.985149233855391</v>
       </c>
       <c r="C190" t="n">
         <v>4</v>
@@ -3041,7 +3227,7 @@
         <v>192</v>
       </c>
       <c r="B191" t="n">
-        <v>0.999998542175984</v>
+        <v>0.867072622296526</v>
       </c>
       <c r="C191" t="n">
         <v>4</v>
@@ -3052,7 +3238,7 @@
         <v>193</v>
       </c>
       <c r="B192" t="n">
-        <v>0.997473835008172</v>
+        <v>0.859028841070221</v>
       </c>
       <c r="C192" t="n">
         <v>4</v>
@@ -3063,7 +3249,7 @@
         <v>194</v>
       </c>
       <c r="B193" t="n">
-        <v>1</v>
+        <v>0.866729820128471</v>
       </c>
       <c r="C193" t="n">
         <v>4</v>
@@ -3074,7 +3260,7 @@
         <v>195</v>
       </c>
       <c r="B194" t="n">
-        <v>1</v>
+        <v>0.97169336526157</v>
       </c>
       <c r="C194" t="n">
         <v>4</v>
@@ -3085,9 +3271,691 @@
         <v>196</v>
       </c>
       <c r="B195" t="n">
-        <v>0.999999986942302</v>
+        <v>0.994573998870725</v>
       </c>
       <c r="C195" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>197</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.999807500728116</v>
+      </c>
+      <c r="C196" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>198</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.955805261022143</v>
+      </c>
+      <c r="C197" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>199</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.995919067115702</v>
+      </c>
+      <c r="C198" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>200</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.963327230709908</v>
+      </c>
+      <c r="C199" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>201</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.946299365565335</v>
+      </c>
+      <c r="C200" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>202</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.927631423130193</v>
+      </c>
+      <c r="C201" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>203</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0.999647309844599</v>
+      </c>
+      <c r="C202" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>204</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0.916048062925721</v>
+      </c>
+      <c r="C203" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>205</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0.999888437545298</v>
+      </c>
+      <c r="C204" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>206</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0.876259318411029</v>
+      </c>
+      <c r="C205" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>207</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0.983092030420108</v>
+      </c>
+      <c r="C206" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>208</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0.998685248744631</v>
+      </c>
+      <c r="C207" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>209</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0.999398924554899</v>
+      </c>
+      <c r="C208" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>210</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0.999617754227697</v>
+      </c>
+      <c r="C209" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>211</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0.824957940920636</v>
+      </c>
+      <c r="C210" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>212</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.916152892460311</v>
+      </c>
+      <c r="C211" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>213</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0.999958848559076</v>
+      </c>
+      <c r="C212" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>214</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0.974759825985885</v>
+      </c>
+      <c r="C213" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>215</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0.99777739485225</v>
+      </c>
+      <c r="C214" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>216</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0.874116678052512</v>
+      </c>
+      <c r="C215" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>217</v>
+      </c>
+      <c r="B216" t="n">
+        <v>0.940149599764396</v>
+      </c>
+      <c r="C216" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>218</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0.990876422895131</v>
+      </c>
+      <c r="C217" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>219</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0.987757669120742</v>
+      </c>
+      <c r="C218" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>220</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0.97495503282033</v>
+      </c>
+      <c r="C219" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>221</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0.999162064365389</v>
+      </c>
+      <c r="C220" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>222</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0.990025185179169</v>
+      </c>
+      <c r="C221" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>223</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0.995241483801574</v>
+      </c>
+      <c r="C222" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>224</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0.842150448031222</v>
+      </c>
+      <c r="C223" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>225</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0.809654296620093</v>
+      </c>
+      <c r="C224" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>226</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0.911625325423916</v>
+      </c>
+      <c r="C225" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>227</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0.999123837309975</v>
+      </c>
+      <c r="C226" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>228</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0.997837179590747</v>
+      </c>
+      <c r="C227" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>229</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0.803312815145679</v>
+      </c>
+      <c r="C228" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>230</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0.920867210245724</v>
+      </c>
+      <c r="C229" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>231</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0.996362494415504</v>
+      </c>
+      <c r="C230" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>232</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0.996828586168862</v>
+      </c>
+      <c r="C231" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>233</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0.999604642052477</v>
+      </c>
+      <c r="C232" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>234</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0.945347461125604</v>
+      </c>
+      <c r="C233" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>235</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0.92544475613344</v>
+      </c>
+      <c r="C234" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>236</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0.992236194308562</v>
+      </c>
+      <c r="C235" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>237</v>
+      </c>
+      <c r="B236" t="n">
+        <v>0.981502587410576</v>
+      </c>
+      <c r="C236" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>238</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0.86499681607716</v>
+      </c>
+      <c r="C237" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>239</v>
+      </c>
+      <c r="B238" t="n">
+        <v>0.843371115545981</v>
+      </c>
+      <c r="C238" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>240</v>
+      </c>
+      <c r="B239" t="n">
+        <v>0.998772838305811</v>
+      </c>
+      <c r="C239" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>241</v>
+      </c>
+      <c r="B240" t="n">
+        <v>0.99153596131185</v>
+      </c>
+      <c r="C240" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>242</v>
+      </c>
+      <c r="B241" t="n">
+        <v>0.987296454160325</v>
+      </c>
+      <c r="C241" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>243</v>
+      </c>
+      <c r="B242" t="n">
+        <v>0.990409149183662</v>
+      </c>
+      <c r="C242" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>244</v>
+      </c>
+      <c r="B243" t="n">
+        <v>0.957894614391817</v>
+      </c>
+      <c r="C243" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>245</v>
+      </c>
+      <c r="B244" t="n">
+        <v>0.977551325597816</v>
+      </c>
+      <c r="C244" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>246</v>
+      </c>
+      <c r="B245" t="n">
+        <v>0.998355251203663</v>
+      </c>
+      <c r="C245" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>247</v>
+      </c>
+      <c r="B246" t="n">
+        <v>0.996303178244227</v>
+      </c>
+      <c r="C246" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>248</v>
+      </c>
+      <c r="B247" t="n">
+        <v>0.953457349463817</v>
+      </c>
+      <c r="C247" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>249</v>
+      </c>
+      <c r="B248" t="n">
+        <v>0.999936062597918</v>
+      </c>
+      <c r="C248" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>250</v>
+      </c>
+      <c r="B249" t="n">
+        <v>0.99767256491175</v>
+      </c>
+      <c r="C249" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>251</v>
+      </c>
+      <c r="B250" t="n">
+        <v>0.992686080536839</v>
+      </c>
+      <c r="C250" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>252</v>
+      </c>
+      <c r="B251" t="n">
+        <v>0.999061042762131</v>
+      </c>
+      <c r="C251" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>253</v>
+      </c>
+      <c r="B252" t="n">
+        <v>0.999623926717011</v>
+      </c>
+      <c r="C252" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>254</v>
+      </c>
+      <c r="B253" t="n">
+        <v>0.995744845039648</v>
+      </c>
+      <c r="C253" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>255</v>
+      </c>
+      <c r="B254" t="n">
+        <v>0.930080679907132</v>
+      </c>
+      <c r="C254" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>256</v>
+      </c>
+      <c r="B255" t="n">
+        <v>0.999652810046372</v>
+      </c>
+      <c r="C255" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>257</v>
+      </c>
+      <c r="B256" t="n">
+        <v>0.994501313132056</v>
+      </c>
+      <c r="C256" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>258</v>
+      </c>
+      <c r="B257" t="n">
+        <v>0.83903193810557</v>
+      </c>
+      <c r="C257" t="n">
         <v>4</v>
       </c>
     </row>
